--- a/Touch_probe/src/test.xlsx
+++ b/Touch_probe/src/test.xlsx
@@ -454,35 +454,35 @@
     <row r="2">
       <c r="A2" s="0" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>76</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="inlineStr">
         <is>
-          <t>5.7</t>
+          <t>0.4</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>0.4</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="inlineStr">
         <is>
-          <t>6.4</t>
+          <t>1.5</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="inlineStr">
         <is>
-          <t>7.1</t>
+          <t>0.4</t>
         </is>
       </c>
     </row>
